--- a/Team-Data/2012-13/12-22-2012-13.xlsx
+++ b/Team-Data/2012-13/12-22-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,85 +733,85 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.64</v>
+        <v>0.625</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J2" t="n">
-        <v>81.7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="N2" t="n">
         <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>14</v>
+        <v>14.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.702</v>
+        <v>0.698</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U2" t="n">
         <v>22.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X2" t="n">
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -759,28 +826,28 @@
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
         <v>28</v>
@@ -789,10 +856,10 @@
         <v>22</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -804,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>8</v>
@@ -813,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
         <v>16</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -983,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>27</v>
@@ -995,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -1108,28 +1175,28 @@
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>22</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>8</v>
@@ -1138,13 +1205,13 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1177,13 +1244,13 @@
         <v>5</v>
       </c>
       <c r="BA4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>0.259</v>
+        <v>0.269</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>18.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.343</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.757</v>
+        <v>0.763</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U5" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V5" t="n">
         <v>14.1</v>
@@ -1272,31 +1339,31 @@
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
         <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>27</v>
@@ -1314,31 +1381,31 @@
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1350,7 +1417,7 @@
         <v>22</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
@@ -1359,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>15</v>
       </c>
       <c r="BC5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.577</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J6" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.441</v>
@@ -1424,58 +1491,58 @@
         <v>12.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>22.6</v>
+        <v>23.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.806</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>43.8</v>
       </c>
       <c r="U6" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V6" t="n">
         <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>93.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1487,13 +1554,13 @@
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,52 +1569,52 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -1576,64 +1643,64 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.207</v>
+        <v>0.179</v>
       </c>
       <c r="H7" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.416</v>
+        <v>0.415</v>
       </c>
       <c r="L7" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.727</v>
+        <v>0.724</v>
       </c>
       <c r="R7" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S7" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="T7" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U7" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V7" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X7" t="n">
         <v>3.2</v>
@@ -1642,16 +1709,16 @@
         <v>7.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB7" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.8</v>
+        <v>-6.4</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1663,13 +1730,13 @@
         <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1690,16 +1757,16 @@
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT7" t="n">
         <v>16</v>
@@ -1708,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,13 +1790,13 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
       </c>
       <c r="BC7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>-2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>22</v>
@@ -1860,7 +1927,7 @@
         <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
@@ -1869,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1884,22 +1951,22 @@
         <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>15</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1911,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.536</v>
+        <v>0.519</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
-        <v>84.5</v>
+        <v>84.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
@@ -1970,19 +2037,19 @@
         <v>18.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O9" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="Q9" t="n">
         <v>0.6860000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S9" t="n">
         <v>32</v>
@@ -1991,46 +2058,46 @@
         <v>45.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="V9" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W9" t="n">
         <v>7.8</v>
       </c>
       <c r="X9" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Z9" t="n">
         <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2048,13 +2115,13 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2069,22 +2136,22 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>18</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>17</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2093,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -2122,88 +2189,88 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.276</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J10" t="n">
-        <v>80.5</v>
+        <v>80.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L10" t="n">
         <v>5.8</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O10" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P10" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
         <v>27</v>
@@ -2218,19 +2285,19 @@
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM10" t="n">
         <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
@@ -2242,16 +2309,16 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>12</v>
@@ -2260,7 +2327,7 @@
         <v>30</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
         <v>22</v>
@@ -2269,13 +2336,13 @@
         <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB10" t="n">
         <v>24</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -2304,49 +2371,49 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
         <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.643</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="J11" t="n">
-        <v>84.40000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.787</v>
+        <v>0.785</v>
       </c>
       <c r="R11" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
         <v>33.6</v>
@@ -2355,19 +2422,19 @@
         <v>45.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V11" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
         <v>3.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z11" t="n">
         <v>22.2</v>
@@ -2376,31 +2443,31 @@
         <v>19.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.8</v>
+        <v>101.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>7</v>
@@ -2412,19 +2479,19 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="AV11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2553,37 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.538</v>
+        <v>0.52</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.449</v>
+        <v>0.445</v>
       </c>
       <c r="L12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N12" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O12" t="n">
         <v>20.5</v>
@@ -2525,25 +2592,25 @@
         <v>26.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U12" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="V12" t="n">
         <v>16.2</v>
       </c>
       <c r="W12" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.4</v>
@@ -2552,40 +2619,40 @@
         <v>6.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA12" t="n">
         <v>19.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.4</v>
+        <v>104.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AD12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK12" t="n">
         <v>15</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>3</v>
@@ -2609,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2627,19 +2694,19 @@
         <v>26</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -2668,52 +2735,52 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.571</v>
+        <v>0.556</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J13" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K13" t="n">
         <v>0.426</v>
       </c>
       <c r="L13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
         <v>18.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.727</v>
+        <v>0.731</v>
       </c>
       <c r="R13" t="n">
         <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T13" t="n">
         <v>46</v>
@@ -2722,70 +2789,70 @@
         <v>19.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
       </c>
       <c r="AF13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AG13" t="n">
-        <v>10</v>
-      </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>9</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>25</v>
@@ -2803,16 +2870,16 @@
         <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
         <v>8</v>
@@ -2821,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,16 +3019,16 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2976,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.481</v>
+        <v>0.462</v>
       </c>
       <c r="H15" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>80.7</v>
+        <v>79.7</v>
       </c>
       <c r="K15" t="n">
         <v>0.452</v>
@@ -3059,40 +3126,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O15" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="P15" t="n">
-        <v>29.6</v>
+        <v>30.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>13.2</v>
       </c>
       <c r="S15" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="T15" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="V15" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="W15" t="n">
         <v>7.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
@@ -3101,34 +3168,34 @@
         <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.6</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
         <v>2.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3143,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3158,16 +3225,16 @@
         <v>5</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -3214,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
         <v>18</v>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.44</v>
+        <v>0.436</v>
       </c>
       <c r="L16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M16" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="O16" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.801</v>
+        <v>0.803</v>
       </c>
       <c r="R16" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
@@ -3280,28 +3347,28 @@
         <v>5.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,19 +3389,19 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
       </c>
       <c r="AR16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS16" t="n">
         <v>20</v>
@@ -3346,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3361,13 +3428,13 @@
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.498</v>
+        <v>0.497</v>
       </c>
       <c r="L17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
@@ -3435,13 +3502,13 @@
         <v>22.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
         <v>7.8</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T17" t="n">
         <v>38.7</v>
@@ -3450,16 +3517,16 @@
         <v>23</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
         <v>18.9</v>
@@ -3468,22 +3535,22 @@
         <v>19.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>24</v>
@@ -3507,13 +3574,13 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3528,13 +3595,13 @@
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,13 +3610,13 @@
         <v>6</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -3578,106 +3645,106 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.538</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.319</v>
+        <v>0.325</v>
       </c>
       <c r="O18" t="n">
         <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
         <v>30.6</v>
       </c>
       <c r="T18" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V18" t="n">
         <v>14.5</v>
       </c>
       <c r="W18" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" t="n">
         <v>4.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH18" t="n">
         <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>26</v>
@@ -3686,13 +3753,13 @@
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>21</v>
@@ -3704,16 +3771,16 @@
         <v>15</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3722,13 +3789,13 @@
         <v>4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -3838,19 +3905,19 @@
         <v>1.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3859,10 +3926,10 @@
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
         <v>15</v>
@@ -3877,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3895,7 +3962,7 @@
         <v>27</v>
       </c>
       <c r="AW19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX19" t="n">
         <v>9</v>
@@ -3913,7 +3980,7 @@
         <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -3942,97 +4009,97 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.185</v>
+        <v>0.192</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J20" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K20" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M20" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
         <v>0.377</v>
       </c>
       <c r="O20" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R20" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="S20" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T20" t="n">
         <v>40.3</v>
       </c>
       <c r="U20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V20" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>91</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG20" t="n">
         <v>28</v>
       </c>
-      <c r="AG20" t="n">
-        <v>29</v>
-      </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,19 +4108,19 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4071,25 +4138,25 @@
         <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AW20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY20" t="n">
         <v>27</v>
       </c>
-      <c r="AX20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY20" t="n">
+      <c r="AZ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA20" t="n">
         <v>28</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -4202,28 +4269,28 @@
         <v>6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
@@ -4271,13 +4338,13 @@
         <v>4</v>
       </c>
       <c r="BA21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB21" t="n">
         <v>5</v>
       </c>
       <c r="BC21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4429,13 +4496,13 @@
         <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4456,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-1.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>27</v>
@@ -4614,16 +4681,16 @@
         <v>3</v>
       </c>
       <c r="AT23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU23" t="n">
         <v>7</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
@@ -4632,7 +4699,7 @@
         <v>11</v>
       </c>
       <c r="AZ23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4641,7 +4708,7 @@
         <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -4748,37 +4815,37 @@
         <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
       </c>
       <c r="AH24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK24" t="n">
         <v>19</v>
       </c>
-      <c r="AI24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>20</v>
-      </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
@@ -4787,10 +4854,10 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS24" t="n">
         <v>21</v>
@@ -4799,7 +4866,7 @@
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,19 +4875,19 @@
         <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.407</v>
+        <v>0.423</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J25" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K25" t="n">
         <v>0.45</v>
@@ -4882,70 +4949,70 @@
         <v>18.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="P25" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S25" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="T25" t="n">
-        <v>39.7</v>
+        <v>40</v>
       </c>
       <c r="U25" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V25" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X25" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC25" t="n">
         <v>-2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG25" t="n">
         <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>2</v>
@@ -4957,37 +5024,37 @@
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN25" t="n">
         <v>15</v>
       </c>
       <c r="AO25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP25" t="n">
         <v>26</v>
       </c>
-      <c r="AP25" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -5034,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>49</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
       <c r="L26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="N26" t="n">
         <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
         <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U26" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
         <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z26" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AA26" t="n">
         <v>19.6</v>
       </c>
-      <c r="AA26" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AB26" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>2</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,16 +5209,16 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>14</v>
@@ -5166,22 +5233,22 @@
         <v>27</v>
       </c>
       <c r="AV26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ26" t="n">
         <v>15</v>
       </c>
-      <c r="AW26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>12</v>
-      </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5306,13 +5373,13 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5324,7 +5391,7 @@
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>15</v>
@@ -5342,13 +5409,13 @@
         <v>26</v>
       </c>
       <c r="AT27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW27" t="n">
         <v>15</v>
@@ -5366,10 +5433,10 @@
         <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,22 +5561,22 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>24</v>
@@ -5524,19 +5591,19 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW28" t="n">
         <v>9</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5679,7 +5746,7 @@
         <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5691,22 +5758,22 @@
         <v>25</v>
       </c>
       <c r="AO29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>8</v>
       </c>
-      <c r="AP29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>9</v>
-      </c>
       <c r="AR29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>18</v>
@@ -5718,19 +5785,19 @@
         <v>23</v>
       </c>
       <c r="AX29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY29" t="n">
         <v>18</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB29" t="n">
         <v>17</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -5762,109 +5829,109 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H30" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J30" t="n">
-        <v>82.7</v>
+        <v>83</v>
       </c>
       <c r="K30" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M30" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
         <v>24.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.762</v>
       </c>
       <c r="R30" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U30" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Y30" t="n">
         <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
         <v>24</v>
@@ -5873,16 +5940,16 @@
         <v>12</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS30" t="n">
         <v>19</v>
@@ -5891,16 +5958,16 @@
         <v>8</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AV30" t="n">
         <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -5909,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
@@ -5944,52 +6011,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>33.5</v>
+        <v>33.7</v>
       </c>
       <c r="J31" t="n">
-        <v>83.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.402</v>
+        <v>0.403</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>20.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="O31" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="P31" t="n">
-        <v>20.2</v>
+        <v>19.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R31" t="n">
         <v>11.5</v>
       </c>
       <c r="S31" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
         <v>43</v>
@@ -5998,37 +6065,37 @@
         <v>20.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB31" t="n">
         <v>88.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6046,7 +6113,7 @@
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
@@ -6055,37 +6122,37 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW31" t="n">
         <v>18</v>
       </c>
-      <c r="AR31" t="n">
+      <c r="AX31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY31" t="n">
         <v>17</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>24</v>
@@ -6097,7 +6164,7 @@
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-22-2012-13</t>
+          <t>2012-12-22</t>
         </is>
       </c>
     </row>
